--- a/data_hs21_pred/milchpreis.xlsx
+++ b/data_hs21_pred/milchpreis.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24430"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hahn\Documents\Master\temp\test\yogurt-prediction\data_hs21\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hahn\Documents\Master\temp\test\yogurt-prediction\data_hs21_pred\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54F750BB-CEF5-4BA3-B94A-41F696E179F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{413C3E63-0C50-4377-AA96-62A583F74F58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="70">
   <si>
     <t>datum</t>
   </si>
@@ -232,13 +232,16 @@
   </si>
   <si>
     <t>prod.milchpreis.a</t>
+  </si>
+  <si>
+    <t>08.21</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -255,6 +258,7 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -264,6 +268,13 @@
     </font>
     <font>
       <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -285,7 +296,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="10">
+  <cellStyleXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
       <alignment horizontal="left"/>
@@ -300,8 +311,18 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+      <alignment horizontal="left"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -320,15 +341,23 @@
     </xf>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="14" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="10">
+  <cellStyles count="16">
+    <cellStyle name="Link 2" xfId="13" xr:uid="{02F8E891-3C7D-48F8-B29C-8A3019D37315}"/>
     <cellStyle name="Normal 2" xfId="2" xr:uid="{C6109CA5-36FA-4C02-8489-7370C6C8B0F7}"/>
     <cellStyle name="Normal 2 2" xfId="7" xr:uid="{9D1EAAF8-F083-4D31-B341-F80E74ED2900}"/>
     <cellStyle name="Normal 2 2 2" xfId="9" xr:uid="{A2529CAF-2817-4288-A7B7-F3AC235F54F6}"/>
+    <cellStyle name="Normal 2 2 3" xfId="14" xr:uid="{009F2985-CEA9-414E-AA37-BCDE950362D0}"/>
     <cellStyle name="Normal 3" xfId="3" xr:uid="{699EDF90-4BC6-4DFF-B2A8-811B05F8E67B}"/>
+    <cellStyle name="Normal 3 2" xfId="10" xr:uid="{3A23EFF6-2EDE-4926-8AE9-92AE7BEC28BB}"/>
     <cellStyle name="Normal 7" xfId="8" xr:uid="{44B71936-7F5A-4D81-83AB-858CBC31C486}"/>
+    <cellStyle name="Normal 7 2" xfId="15" xr:uid="{D9541C1C-8359-4620-83A6-8803FA2C4999}"/>
     <cellStyle name="Pourcentage 2" xfId="4" xr:uid="{821CA986-0A4F-4538-979E-199D35447045}"/>
+    <cellStyle name="Pourcentage 2 2" xfId="11" xr:uid="{B18FEDA1-1AD2-4FF2-B4F5-806F14889867}"/>
     <cellStyle name="Pourcentage 3" xfId="5" xr:uid="{08BE0C7B-05CF-4639-A87B-F933A96A997A}"/>
+    <cellStyle name="Pourcentage 3 2" xfId="12" xr:uid="{551E14D0-839F-4607-8C77-24DEF2F77F47}"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
     <cellStyle name="Standard 2" xfId="6" xr:uid="{8941C602-0BFD-4AF1-BEB8-05D87E9D4B0D}"/>
     <cellStyle name="Standard 3" xfId="1" xr:uid="{EF679A2E-E576-480F-9B69-5A8340295288}"/>
@@ -609,10 +638,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B68"/>
+  <dimension ref="A1:B70"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="A70" sqref="A70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1161,6 +1190,17 @@
         <v>69.930000000000007</v>
       </c>
     </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="B69" s="9">
+        <v>70.95</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" s="8"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
